--- a/Bloque Cuantica-Estadistica/P1B/P1B.xlsx
+++ b/Bloque Cuantica-Estadistica/P1B/P1B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feyra\Desktop\UNI\T-cnicas-experimentales-II\Bloque Cuantica-Estadistica\P1B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23288EC2-5755-4689-873F-406667FD07B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE47A6CF-B189-4AC0-AA41-DEA013D50AB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parte 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>V</t>
   </si>
@@ -74,10 +74,10 @@
     <t>f asociado (Hz)</t>
   </si>
   <si>
-    <t>(aquí hay algo raro con las unidades)</t>
+    <t>V (V)</t>
   </si>
   <si>
-    <t>(parece ser que no, que simplemente es mucho)</t>
+    <t>err 0.01</t>
   </si>
 </sst>
 </file>
@@ -85,8 +85,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="170" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.0E+00"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -133,8 +133,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -260,52 +260,139 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Parte 1'!$D$3:$D$13</c:f>
+              <c:f>'Parte 1'!$D$3:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>0.0E+00</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>799619279512417.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>770523762086910.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>743525920025268.75</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>718408806962431.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>694984404755645.63</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
+                  <c:v>673088957655266.38</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>652579181319031.75</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>633329161096962.63</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>615227797678233.13</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>598176690627624.13</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>582088374666370.13</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
+                  <c:v>566884841961976.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>552496297741156.31</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>538860107347375.38</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>525919901240215.31</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
+                  <c:v>513624810970877.56</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>501928814304479.19</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="17">
+                  <c:v>490790171721068.19</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>480170939757835.81</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
+                  <c:v>470036549239462.38</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>460355438522318.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>451098733558977.44</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>442239967955083.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>433754837305386.19</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>425620983009872.31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Parte 1'!$E$3:$E$13</c:f>
+              <c:f>'Parte 1'!$E$3:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="25"/>
+                <c:pt idx="0" formatCode="0.00">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -410,7 +497,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1064,15 +1151,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:colOff>106680</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
+      <xdr:colOff>510540</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1363,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E15"/>
+  <dimension ref="A2:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1391,7 +1478,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1408,6 +1495,9 @@
       <c r="D3" s="4">
         <f>2.99792*10^8 /(C3*10^-9)</f>
         <v>799619279512417.25</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1416,16 +1506,19 @@
         <v>1666.6666666666667</v>
       </c>
       <c r="B4" s="3">
-        <f>B3+1</f>
-        <v>14</v>
+        <f>B3+0.5</f>
+        <v>13.5</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ref="C4:C13" si="0">$A$4/$A$6* SIN(B4 * PI()/180)</f>
-        <v>403.20315933277959</v>
+        <f t="shared" ref="C4:C27" si="0">$A$4/$A$6* SIN(B4 * PI()/180)</f>
+        <v>389.07560642650901</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:D13" si="1">2.99792*10^8 /(C4*10^-9)</f>
-        <v>743525920025268.75</v>
+        <f t="shared" ref="D4:D27" si="1">2.99792*10^8 /(C4*10^-9)</f>
+        <v>770523762086910.88</v>
+      </c>
+      <c r="E4">
+        <v>1.39</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1433,16 +1526,19 @@
         <v>12</v>
       </c>
       <c r="B5" s="3">
-        <f t="shared" ref="B5:B12" si="2">B4+1</f>
-        <v>15</v>
+        <f t="shared" ref="B5:B27" si="2">B4+0.5</f>
+        <v>14</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" si="0"/>
-        <v>431.3650751708679</v>
+        <v>403.20315933277959</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="1"/>
-        <v>694984404755645.63</v>
+        <v>743525920025268.75</v>
+      </c>
+      <c r="E5">
+        <v>1.37</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1451,129 +1547,357 @@
       </c>
       <c r="B6" s="3">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" si="0"/>
-        <v>459.39559302833197</v>
+        <v>417.3000067574024</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="1"/>
-        <v>652579181319031.75</v>
+        <v>718408806962431.25</v>
+      </c>
+      <c r="E6">
+        <v>1.28</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" si="0"/>
-        <v>487.28617453789462</v>
+        <v>431.3650751708679</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="1"/>
-        <v>615227797678233.13</v>
+        <v>694984404755645.63</v>
+      </c>
+      <c r="E7">
+        <v>1.22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
-        <f>B7+1</f>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>15.5</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" si="0"/>
-        <v>515.02832395824566</v>
+        <v>445.39729346376146</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="1"/>
-        <v>582088374666370.13</v>
+        <v>673088957655266.38</v>
+      </c>
+      <c r="E8">
+        <v>1.18</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>459.39559302833197</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="1"/>
+        <v>652579181319031.75</v>
+      </c>
+      <c r="E9">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <f t="shared" si="2"/>
+        <v>16.5</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>473.35890783987111</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="1"/>
+        <v>633329161096962.63</v>
+      </c>
+      <c r="E10">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>487.28617453789462</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="1"/>
+        <v>615227797678233.13</v>
+      </c>
+      <c r="E11">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
+        <f t="shared" si="2"/>
+        <v>17.5</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>501.17633250712191</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="1"/>
+        <v>598176690627624.13</v>
+      </c>
+      <c r="E12">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>515.02832395824566</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="1"/>
+        <v>582088374666370.13</v>
+      </c>
+      <c r="E13">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <f t="shared" si="2"/>
+        <v>18.5</v>
+      </c>
+      <c r="C14" s="3">
+        <f>$A$4/$A$6* SIN(B14 * PI()/180)</f>
+        <v>528.84109400848695</v>
+      </c>
+      <c r="D14" s="4">
+        <f>2.99792*10^8 /(C14*10^-9)</f>
+        <v>566884841961976.75</v>
+      </c>
+      <c r="E14">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C15" s="3">
         <f t="shared" si="0"/>
         <v>542.61359076192775</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D15" s="4">
         <f t="shared" si="1"/>
         <v>552496297741156.31</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="E15">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3">
-        <f>B9+1</f>
+      <c r="B16" s="3">
+        <f t="shared" si="2"/>
+        <v>19.5</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="0"/>
+        <v>556.34476538961815</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="1"/>
+        <v>538860107347375.38</v>
+      </c>
+      <c r="E16">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="3">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C17" s="3">
         <f t="shared" si="0"/>
         <v>570.03357220944793</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D17" s="4">
         <f t="shared" si="1"/>
         <v>525919901240215.31</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3">
+      <c r="E17">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="3">
+        <f t="shared" si="2"/>
+        <v>20.5</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="0"/>
+        <v>583.67896876577902</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="1"/>
+        <v>513624810970877.56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="3">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C19" s="3">
         <f t="shared" si="0"/>
         <v>597.2799159088338</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D19" s="4">
         <f t="shared" si="1"/>
         <v>501928814304479.19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
+        <f t="shared" si="2"/>
+        <v>21.5</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="0"/>
+        <v>610.83537787382875</v>
+      </c>
+      <c r="D20" s="4">
+        <f t="shared" si="1"/>
+        <v>490790171721068.19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C21" s="3">
         <f t="shared" si="0"/>
         <v>624.34432235985344</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D21" s="4">
         <f t="shared" si="1"/>
         <v>480170939757835.81</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="3">
-        <f>B12+1</f>
+      <c r="F21">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="3">
+        <f t="shared" si="2"/>
+        <v>22.5</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="0"/>
+        <v>637.80572060848294</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="1"/>
+        <v>470036549239462.38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="3">
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C23" s="3">
         <f t="shared" si="0"/>
         <v>651.21854748212286</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D23" s="4">
         <f t="shared" si="1"/>
         <v>460355438522318.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D15" t="s">
-        <v>16</v>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="3">
+        <f t="shared" si="2"/>
+        <v>23.5</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="0"/>
+        <v>664.58178154207701</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="1"/>
+        <v>451098733558977.44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="3">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="0"/>
+        <v>677.8944051263336</v>
+      </c>
+      <c r="D25" s="4">
+        <f t="shared" si="1"/>
+        <v>442239967955083.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="3">
+        <f t="shared" si="2"/>
+        <v>24.5</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="0"/>
+        <v>691.15540442706504</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="1"/>
+        <v>433754837305386.19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="0"/>
+        <v>704.36376956783238</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="1"/>
+        <v>425620983009872.31</v>
       </c>
     </row>
   </sheetData>
@@ -1586,7 +1910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556F8399-813B-44D5-9B7B-7CC36300CE37}">
   <dimension ref="B1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
